--- a/data/stocks_data_2023_to_2024.xlsx
+++ b/data/stocks_data_2023_to_2024.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:AH438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
